--- a/log/dataframes_to_excel_result.xlsx
+++ b/log/dataframes_to_excel_result.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI_Bender\CVsion\IRetrieval_cnn\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI_Bender\Github_modif\Image_Retrieval_with_CNN_and_fastai\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26115" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="accuracy" sheetId="5" r:id="rId1"/>
+    <sheet name="result" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -582,7 +582,7 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
